--- a/author_title_output/Illumination-Invariant and Deformation-Tolerant Inner Knuckle Print Recognition Using Portable Devices.xlsx
+++ b/author_title_output/Illumination-Invariant and Deformation-Tolerant Inner Knuckle Print Recognition Using Portable Devices.xlsx
@@ -452,12 +452,12 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Kumar Ravinder, Shri Vishwakarma Skill Univ</t>
+          <t>Kumar Ravinder, Shri Vishwakarma Skill Univ, IEEE Fellow</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Kishore R. Rama, GGS Indraprastha University</t>
+          <t>Kishore R. Rama, GGS Indraprastha University, IEEE Fellow</t>
         </is>
       </c>
       <c r="I1" t="inlineStr"/>
@@ -488,17 +488,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ELSayed Ahmed S., Egyptian Knowledge Bank (EKB), APS Fellow, IEEE Fellow</t>
+          <t>ELSayed Ahmed S., Egyptian Knowledge Bank (EKB)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Ebeid Hala M., Egyptian Knowledge Bank (EKB), APS Fellow, IEEE Fellow, IET Fellow</t>
+          <t>Ebeid Hala M., Egyptian Knowledge Bank (EKB)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Roushdy Mohamed, Egyptian Knowledge Bank (EKB), IEEE Senior Member, APS Fellow</t>
+          <t>Roushdy Mohamed, Egyptian Knowledge Bank (EKB)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
